--- a/filenameReserv.xlsx
+++ b/filenameReserv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Обучение\Java\ДЗ\Network3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840E71E1-F484-4FEA-8B12-93BDB5B29EF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F0CD52-4849-461B-932B-9517D4EC2F8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>IP</t>
   </si>
@@ -40,19 +40,59 @@
   </si>
   <si>
     <t>172.168.0.1</t>
+  </si>
+  <si>
+    <t>Мантурово</t>
+  </si>
+  <si>
+    <t>Нерехта</t>
+  </si>
+  <si>
+    <t>Макарьев</t>
+  </si>
+  <si>
+    <t>Вохма</t>
+  </si>
+  <si>
+    <t>Поназырево</t>
+  </si>
+  <si>
+    <t>Галич</t>
+  </si>
+  <si>
+    <t>Солигалич</t>
+  </si>
+  <si>
+    <t>Межа</t>
+  </si>
+  <si>
+    <t>Шарья</t>
+  </si>
+  <si>
+    <t>Павино</t>
+  </si>
+  <si>
+    <t>Кологрив</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,8 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -357,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -368,6 +411,7 @@
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -391,7 +435,96 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>1209</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/filenameReserv.xlsx
+++ b/filenameReserv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Обучение\Java\ДЗ\Network3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F0CD52-4849-461B-932B-9517D4EC2F8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F2D00B-2B9F-4564-A9DC-A01296589727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,12 +30,6 @@
     <t>IP</t>
   </si>
   <si>
-    <t>Кострома</t>
-  </si>
-  <si>
-    <t>Якутия</t>
-  </si>
-  <si>
     <t>192.168.0.1</t>
   </si>
   <si>
@@ -73,6 +67,12 @@
   </si>
   <si>
     <t>Кологрив</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Западная Якутия </t>
+  </si>
+  <si>
+    <t>Костромская область</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,23 +421,29 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1056</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>2056</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1174</v>
@@ -445,7 +451,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1210</v>
@@ -453,7 +459,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1201</v>
@@ -461,7 +467,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1210</v>
@@ -469,7 +475,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1160</v>
@@ -477,7 +483,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1332</v>
@@ -485,7 +491,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1202</v>
@@ -493,7 +499,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1178</v>
@@ -501,7 +507,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>2321</v>
@@ -509,7 +515,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1163</v>
@@ -517,7 +523,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1209</v>

--- a/filenameReserv.xlsx
+++ b/filenameReserv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Обучение\Java\ДЗ\Network3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F2D00B-2B9F-4564-A9DC-A01296589727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CA42AA-E908-486E-927C-5987A571296B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>192.168.0.1</t>
   </si>
   <si>
-    <t>172.168.0.1</t>
-  </si>
-  <si>
     <t>Мантурово</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>Костромская область</t>
+  </si>
+  <si>
+    <t>109.236.223.44</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1056</v>
@@ -432,18 +432,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>2056</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1174</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1210</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1201</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1210</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1160</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1332</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1202</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1178</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2321</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1163</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1209</v>
